--- a/Finflux Automation Excels/Client/4942-Validate-Actual-Disbursement-Date-Against-Expected-DisbursementDate.xlsx
+++ b/Finflux Automation Excels/Client/4942-Validate-Actual-Disbursement-Date-Against-Expected-DisbursementDate.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
@@ -184,7 +184,7 @@
     <t>error</t>
   </si>
   <si>
-    <t>tranche actual disbursement date does not match with expected disbursal date of tranche</t>
+    <t>Tranche actual disbursement date does not match with expected disbursement date of tranche</t>
   </si>
 </sst>
 </file>
@@ -969,7 +969,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
